--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>757146.5514982926</v>
+        <v>817982.0264099931</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>196470.4081347123</v>
+        <v>195077.9518526116</v>
       </c>
     </row>
     <row r="8">
@@ -661,73 +661,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>190.3453970742847</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>170.6554636898984</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>109.8883707013301</v>
+        <v>116.5145677284592</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="F8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>241.014288877659</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.014288877659</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="9">
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>97.01986919358285</v>
+        <v>134.9940489328382</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>61.7502124369204</v>
+        <v>53.37131959271656</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448612</v>
@@ -1423,10 +1423,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>104.3883541553075</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4222199825093</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>128.7835007017905</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>92.00803688215841</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>294.5359179420011</v>
       </c>
       <c r="D14" t="n">
-        <v>227.9969626997666</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250842</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.46499054460299</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>92.00803688215807</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>365.9707017312297</v>
+        <v>98.63122914173785</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>25.05231662148195</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>56.8819698781584</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>111.9273983130131</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>177.5594910272602</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I21" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229386</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>49.98991138064277</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>94.63926978364051</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>91.26938074884275</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>325.1010882360456</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I24" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250886</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>92.00803688215818</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>56.8819698781584</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>33.85346179794907</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>21.97101531103549</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>92.00803688215818</v>
+        <v>92.00803688215829</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -2794,22 +2794,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>144.0258383958638</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>218.2133338819654</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>83.59830597394837</v>
       </c>
       <c r="H31" t="n">
-        <v>92.00803688215797</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>333.9662614590268</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>330.228294861196</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>92.00803688215818</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>59.0322609154504</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>119.7442511513853</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>89.06613335611772</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>97.34004921506759</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>275.4805812731082</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>141.2611725603743</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H39" t="n">
         <v>104.3883541553076</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>89.06613335611783</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>23.35455705266789</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3757,10 +3757,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -3802,13 +3802,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>15.82593128898536</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>162.1994487854631</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>221.0021786982965</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>80.30846669433845</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4418,7 +4418,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
         <v>542.809531908403</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>914.2479596093278</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>679.0958513775852</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W3" t="n">
-        <v>435.6470747334852</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X3" t="n">
-        <v>227.7955745279523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>307.8574406365461</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>298.4948343740486</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W6" t="n">
-        <v>187.4964801302808</v>
+        <v>307.8574406365461</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4964801302808</v>
+        <v>307.8574406365461</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.4964801302808</v>
+        <v>307.8574406365461</v>
       </c>
     </row>
     <row r="7">
@@ -4789,7 +4789,7 @@
         <v>506.1786963984127</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984127</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="F8" t="n">
         <v>262.7299197543127</v>
@@ -4837,19 +4837,19 @@
         <v>953.9655401424089</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424089</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424089</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424089</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424089</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.5167634983089</v>
+        <v>506.1786963984127</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299843</v>
+        <v>417.752636919763</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299843</v>
+        <v>417.752636919763</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299843</v>
+        <v>268.8182272585117</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299843</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299843</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299843</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299843</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252816</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972852</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P9" t="n">
-        <v>964.057155510636</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q9" t="n">
         <v>964.057155510636</v>
@@ -4916,19 +4916,19 @@
         <v>761.870560869402</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057911</v>
+        <v>761.870560869402</v>
       </c>
       <c r="V9" t="n">
-        <v>533.6469426057911</v>
+        <v>761.870560869402</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>625.5129356847169</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>625.5129356847169</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299843</v>
+        <v>417.752636919763</v>
       </c>
     </row>
     <row r="10">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1073.534970481817</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C11" t="n">
-        <v>1073.534970481817</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="D11" t="n">
-        <v>1073.534970481817</v>
+        <v>1006.477909722112</v>
       </c>
       <c r="E11" t="n">
-        <v>687.7467178835732</v>
+        <v>1006.477909722112</v>
       </c>
       <c r="F11" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S11" t="n">
-        <v>2520.971603332394</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T11" t="n">
-        <v>2520.971603332394</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U11" t="n">
-        <v>2520.971603332394</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V11" t="n">
-        <v>2189.908715988823</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W11" t="n">
-        <v>1837.140060718709</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X11" t="n">
-        <v>1463.674302457629</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y11" t="n">
-        <v>1073.534970481817</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170843</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359573</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747061</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692506</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961356</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424017</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673436</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5141,31 +5141,31 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430049</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073965</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196744</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935841</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>184.0273259635872</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="C13" t="n">
-        <v>184.0273259635872</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="D13" t="n">
-        <v>184.0273259635872</v>
+        <v>578.0123447940989</v>
       </c>
       <c r="E13" t="n">
-        <v>184.0273259635872</v>
+        <v>430.0992512117058</v>
       </c>
       <c r="F13" t="n">
-        <v>184.0273259635872</v>
+        <v>283.2093037137954</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036448</v>
+        <v>283.2093037137954</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036448</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
         <v>382.7169011658211</v>
@@ -5235,16 +5235,16 @@
         <v>728.1289842064347</v>
       </c>
       <c r="V13" t="n">
-        <v>473.4444960005478</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W13" t="n">
-        <v>184.0273259635872</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X13" t="n">
-        <v>184.0273259635872</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y13" t="n">
-        <v>184.0273259635872</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1366.188433646014</v>
+        <v>1924.457674141024</v>
       </c>
       <c r="C14" t="n">
-        <v>997.2259167056025</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D14" t="n">
-        <v>766.9259543826058</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E14" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036446</v>
@@ -5278,10 +5278,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L14" t="n">
         <v>881.2824271224079</v>
@@ -5308,22 +5308,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2092.422847177208</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W14" t="n">
-        <v>1739.654191907094</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X14" t="n">
-        <v>1366.188433646014</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y14" t="n">
-        <v>1366.188433646014</v>
+        <v>2311.057514205145</v>
       </c>
     </row>
     <row r="15">
@@ -5351,7 +5351,7 @@
         <v>221.4284102424008</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036446</v>
@@ -5360,16 +5360,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
         <v>2188.831293537797</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>200.8329293182748</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="C16" t="n">
-        <v>200.8329293182748</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D16" t="n">
-        <v>200.8329293182748</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E16" t="n">
-        <v>200.8329293182748</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036446</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502503</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T16" t="n">
-        <v>500.8207968750364</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="U16" t="n">
-        <v>500.8207968750364</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="V16" t="n">
-        <v>500.8207968750364</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="W16" t="n">
-        <v>211.4036268380758</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="X16" t="n">
-        <v>211.4036268380758</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="Y16" t="n">
-        <v>211.4036268380758</v>
+        <v>635.1915732143555</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1219.679656148628</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C17" t="n">
-        <v>850.7171392082163</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D17" t="n">
-        <v>850.7171392082163</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E17" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036446</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036446</v>
@@ -5515,13 +5515,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V17" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>2366.086203674652</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X17" t="n">
-        <v>1996.418828188562</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="Y17" t="n">
-        <v>1606.27949621275</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5597,22 +5597,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M18" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1851.373795869721</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2291.509718890065</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2627.754532504894</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C19" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D19" t="n">
-        <v>215.5772630464454</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036446</v>
@@ -5682,7 +5682,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N19" t="n">
         <v>529.6040388502502</v>
@@ -5691,34 +5691,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S19" t="n">
-        <v>365.6939024587812</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T19" t="n">
-        <v>365.6939024587812</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="U19" t="n">
-        <v>365.6939024587812</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="V19" t="n">
-        <v>365.6939024587812</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="W19" t="n">
-        <v>365.6939024587812</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X19" t="n">
-        <v>365.6939024587812</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y19" t="n">
-        <v>365.6939024587812</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>995.9506728057379</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C20" t="n">
-        <v>995.9506728057379</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D20" t="n">
-        <v>995.9506728057379</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5767,7 +5767,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P20" t="n">
         <v>2544.691559791253</v>
@@ -5779,25 +5779,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U20" t="n">
-        <v>2443.387305656314</v>
+        <v>2122.983915064799</v>
       </c>
       <c r="V20" t="n">
-        <v>2112.324418312744</v>
+        <v>1791.921027721229</v>
       </c>
       <c r="W20" t="n">
-        <v>1759.555763042629</v>
+        <v>1791.921027721229</v>
       </c>
       <c r="X20" t="n">
-        <v>1386.09000478155</v>
+        <v>1791.921027721229</v>
       </c>
       <c r="Y20" t="n">
-        <v>995.9506728057379</v>
+        <v>1791.921027721229</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5876,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036446</v>
+        <v>677.6341242259873</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036446</v>
+        <v>508.6979412980804</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036446</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036446</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5919,7 +5919,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N22" t="n">
         <v>529.6040388502502</v>
@@ -5928,34 +5928,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V22" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1344.046505337897</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C23" t="n">
-        <v>975.083988397485</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D23" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6004,7 +6004,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P23" t="n">
         <v>2544.691559791253</v>
@@ -6022,19 +6022,19 @@
         <v>2302.336936304456</v>
       </c>
       <c r="U23" t="n">
-        <v>2048.575150942547</v>
+        <v>2048.575150942548</v>
       </c>
       <c r="V23" t="n">
-        <v>1717.512263598976</v>
+        <v>1717.512263598977</v>
       </c>
       <c r="W23" t="n">
-        <v>1717.512263598976</v>
+        <v>1364.743608328863</v>
       </c>
       <c r="X23" t="n">
-        <v>1344.046505337897</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y23" t="n">
-        <v>1344.046505337897</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170839</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359569</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747056</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692501</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961351</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424012</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673431</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M24" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1851.373795869721</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2291.509718890065</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6101,16 +6101,16 @@
         <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167583</v>
       </c>
       <c r="V24" t="n">
         <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207639</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002106</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237152</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D25" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E25" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F25" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G25" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6156,7 +6156,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N25" t="n">
         <v>529.6040388502502</v>
@@ -6165,34 +6165,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1215.960741127172</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C26" t="n">
-        <v>1215.960741127172</v>
+        <v>1159.387068946881</v>
       </c>
       <c r="D26" t="n">
-        <v>857.6950425204218</v>
+        <v>801.1213703401302</v>
       </c>
       <c r="E26" t="n">
-        <v>471.9067899221776</v>
+        <v>415.3331177418859</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>415.3331177418859</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>415.3331177418859</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>88.13839777788877</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P26" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U26" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V26" t="n">
-        <v>2388.358616186807</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W26" t="n">
-        <v>2366.165671428186</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X26" t="n">
-        <v>1992.699913167106</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y26" t="n">
-        <v>1602.560581191294</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="D28" t="n">
-        <v>578.0123447940987</v>
+        <v>578.0123447940988</v>
       </c>
       <c r="E28" t="n">
-        <v>430.0992512117056</v>
+        <v>430.0992512117057</v>
       </c>
       <c r="F28" t="n">
-        <v>283.2093037137952</v>
+        <v>283.2093037137953</v>
       </c>
       <c r="G28" t="n">
-        <v>283.2093037137952</v>
+        <v>283.2093037137953</v>
       </c>
       <c r="H28" t="n">
         <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6402,34 +6402,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1783.124109094748</v>
+        <v>1019.519018857857</v>
       </c>
       <c r="C29" t="n">
-        <v>1414.161592154336</v>
+        <v>1019.519018857857</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>1019.519018857857</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>1019.519018857857</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6481,10 +6481,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
@@ -6493,7 +6493,7 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U29" t="n">
         <v>2169.72394915887</v>
@@ -6505,10 +6505,10 @@
         <v>2169.72394915887</v>
       </c>
       <c r="X29" t="n">
-        <v>2169.72394915887</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y29" t="n">
-        <v>2169.72394915887</v>
+        <v>1406.118858921979</v>
       </c>
     </row>
     <row r="30">
@@ -6533,28 +6533,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>113.6371076753678</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164664</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121383</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O30" t="n">
         <v>2291.509718890065</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.1289842064342</v>
+        <v>138.385715127383</v>
       </c>
       <c r="C31" t="n">
-        <v>728.1289842064342</v>
+        <v>138.385715127383</v>
       </c>
       <c r="D31" t="n">
-        <v>578.0123447940985</v>
+        <v>138.385715127383</v>
       </c>
       <c r="E31" t="n">
-        <v>430.0992512117053</v>
+        <v>138.385715127383</v>
       </c>
       <c r="F31" t="n">
-        <v>283.209303713795</v>
+        <v>138.385715127383</v>
       </c>
       <c r="G31" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>138.385715127383</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>138.385715127383</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>138.385715127383</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>138.385715127383</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>138.385715127383</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064342</v>
+        <v>138.385715127383</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1167.455337753612</v>
+        <v>1606.020605349451</v>
       </c>
       <c r="C32" t="n">
-        <v>798.4928208132003</v>
+        <v>1606.020605349451</v>
       </c>
       <c r="D32" t="n">
-        <v>798.4928208132003</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>798.4928208132003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>387.5069160235927</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>1893.689751284806</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W32" t="n">
-        <v>1540.921096014692</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X32" t="n">
-        <v>1167.455337753612</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y32" t="n">
-        <v>1167.455337753612</v>
+        <v>1992.620445413572</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6791,31 +6791,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1851.37379586972</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6824,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1328.309493689272</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C35" t="n">
-        <v>1328.309493689272</v>
+        <v>920.0552989279781</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>920.0552989279781</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>920.0552989279781</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
@@ -6943,46 +6943,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2478.514423990286</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>2478.514423990286</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>2478.514423990286</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X35" t="n">
-        <v>2105.048665729206</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y35" t="n">
-        <v>1714.909333753394</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7031,10 +7031,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2291.509718890065</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>438.7118141694737</v>
+        <v>340.388532134052</v>
       </c>
       <c r="C37" t="n">
-        <v>438.7118141694737</v>
+        <v>340.388532134052</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064343</v>
+        <v>629.8057021710126</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064343</v>
+        <v>629.8057021710126</v>
       </c>
       <c r="W37" t="n">
-        <v>438.7118141694737</v>
+        <v>340.388532134052</v>
       </c>
       <c r="X37" t="n">
-        <v>438.7118141694737</v>
+        <v>340.388532134052</v>
       </c>
       <c r="Y37" t="n">
-        <v>438.7118141694737</v>
+        <v>340.388532134052</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1241.158393318536</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C38" t="n">
-        <v>1241.158393318536</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D38" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
         <v>882.8926947117852</v>
@@ -7165,22 +7165,22 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7192,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U38" t="n">
-        <v>2335.826370898998</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V38" t="n">
-        <v>2004.763483555427</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W38" t="n">
-        <v>2004.763483555427</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X38" t="n">
-        <v>1631.297725294347</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>1241.158393318536</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7250,7 +7250,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7298,7 +7298,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>200.8329293182748</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C40" t="n">
-        <v>200.8329293182748</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D40" t="n">
-        <v>200.8329293182748</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>290.7987205870807</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>143.9087730891704</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>143.9087730891704</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V40" t="n">
-        <v>490.2500993552354</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W40" t="n">
-        <v>200.8329293182748</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X40" t="n">
-        <v>200.8329293182748</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y40" t="n">
-        <v>200.8329293182748</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C41" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D41" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733127</v>
@@ -7429,10 +7429,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
         <v>2642.120401548716</v>
@@ -7441,22 +7441,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
         <v>1662.48357412947</v>
       </c>
       <c r="W41" t="n">
-        <v>1646.497784948677</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X41" t="n">
-        <v>1273.032026687597</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y41" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7499,40 +7499,40 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1297.64725977017</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1851.373795869721</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2291.509718890065</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2627.754532504894</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>217.7808088763878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>217.7808088763878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>365.6939024587809</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V43" t="n">
-        <v>365.6939024587809</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W43" t="n">
-        <v>365.6939024587809</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X43" t="n">
-        <v>365.6939024587809</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y43" t="n">
-        <v>365.6939024587809</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
@@ -7666,34 +7666,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7739,13 +7739,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1851.373795869721</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2291.509718890065</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2627.754532504894</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7815,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
         <v>579.9823256406182</v>
       </c>
       <c r="S46" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T46" t="n">
-        <v>579.9823256406182</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U46" t="n">
-        <v>579.9823256406182</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V46" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W46" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8300,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5030352242461</v>
+        <v>369.0313196126378</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>194.3570488013787</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>194.3570488013782</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,13 +22549,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>174.9274946967228</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="3">
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22682,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>81.03951947102121</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22755,7 +22755,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>179.3857036041842</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22880,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,13 +22919,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>141.8066124595895</v>
+        <v>135.1804154324604</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,10 +23029,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>174.2884486374761</v>
@@ -23077,7 +23077,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783946</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="9">
@@ -23105,10 +23105,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23120,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23156,16 +23156,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>154.6751139673368</v>
+        <v>116.7009342280814</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23263,19 +23263,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>345.1258333047911</v>
+        <v>353.5047261489949</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>38.52630155726044</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>64.16285195963671</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>45.19995918853697</v>
@@ -23475,10 +23475,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>70.73697382900644</v>
       </c>
       <c r="D14" t="n">
-        <v>126.6860789209163</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>169.3669896373343</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.0270685759262</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>3.760398947239366</v>
+        <v>271.0998715367312</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>121.3816460250872</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>229.6410284584326</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>270.0029717592486</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>73.66467648102912</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>129.8420688012945</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801578</v>
@@ -24183,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>157.4983735401875</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>263.4136608718402</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24226,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>44.63001244242344</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>64.16285195963697</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.6410284584326</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>118.0778544469121</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>327.2699534063775</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24618,13 +24618,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>64.16285195963697</v>
+        <v>64.16285195963682</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801578</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>210.6572032248191</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>188.6627118597461</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,25 +24843,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>83.71149628510254</v>
       </c>
       <c r="H31" t="n">
-        <v>64.16285195963718</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,16 +24882,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>20.71678016165617</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>83.555875159599</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,25 +25080,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>64.16285195963697</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>56.01837628787189</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>295.6507807052325</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>287.1317945903261</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>59.54933966209464</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,7 +25368,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>188.9418250269101</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>89.79231049789934</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>109.962994947915</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,13 +25566,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>67.10475548567732</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25608,7 +25608,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>228.7830862711601</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>333.4150374284276</v>
+        <v>53.30008710312387</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>85.19271039829675</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>5.110353473587793</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>144.2707130727111</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>53.30008710312387</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>86.93835440428938</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>168.53933734988</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448633.8158345977</v>
+        <v>448633.8158345976</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780712.0470425459</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425456</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425456</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>132928.5380250659</v>
       </c>
       <c r="C2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="D2" t="n">
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
+        <v>231322.0880126061</v>
+      </c>
+      <c r="F2" t="n">
         <v>231322.0880126062</v>
-      </c>
-      <c r="F2" t="n">
-        <v>231322.0880126061</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
@@ -26334,7 +26334,7 @@
         <v>231322.0880126062</v>
       </c>
       <c r="I2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
         <v>231322.0880126061</v>
@@ -26352,7 +26352,7 @@
         <v>231322.0880126062</v>
       </c>
       <c r="O2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="P2" t="n">
         <v>231322.0880126061</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429964</v>
+        <v>432846.1740429963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910617</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740583</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,31 +26426,31 @@
         <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
+        <v>513.1084990597036</v>
+      </c>
+      <c r="F4" t="n">
+        <v>513.1084990597035</v>
+      </c>
+      <c r="G4" t="n">
+        <v>513.1084990597036</v>
+      </c>
+      <c r="H4" t="n">
         <v>513.1084990597037</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>513.1084990597037</v>
-      </c>
-      <c r="G4" t="n">
-        <v>513.1084990597035</v>
-      </c>
-      <c r="H4" t="n">
-        <v>513.1084990597035</v>
-      </c>
-      <c r="I4" t="n">
-        <v>513.1084990597035</v>
       </c>
       <c r="J4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
@@ -26478,40 +26478,40 @@
         <v>48281.26876376166</v>
       </c>
       <c r="E5" t="n">
+        <v>49231.47806340948</v>
+      </c>
+      <c r="F5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="G5" t="n">
+        <v>49231.47806340948</v>
+      </c>
+      <c r="H5" t="n">
         <v>49231.47806340949</v>
       </c>
-      <c r="F5" t="n">
-        <v>49231.47806340948</v>
-      </c>
-      <c r="G5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="H5" t="n">
-        <v>49231.47806340947</v>
-      </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
+        <v>49231.47806340948</v>
+      </c>
+      <c r="L5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="M5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="O5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="M5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="O5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="P5" t="n">
-        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8519.705387987917</v>
+        <v>2476.504170048499</v>
       </c>
       <c r="C6" t="n">
-        <v>72249.72614355982</v>
+        <v>83245.93570159627</v>
       </c>
       <c r="D6" t="n">
-        <v>72249.72614355983</v>
+        <v>83245.93570159626</v>
       </c>
       <c r="E6" t="n">
-        <v>-257337.0863386786</v>
+        <v>-251875.5139674414</v>
       </c>
       <c r="F6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.6600755552</v>
       </c>
       <c r="G6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="H6" t="n">
-        <v>175509.0877043178</v>
+        <v>180970.6600755551</v>
       </c>
       <c r="I6" t="n">
-        <v>175509.0877043178</v>
+        <v>180970.660075555</v>
       </c>
       <c r="J6" t="n">
-        <v>112449.1451052114</v>
+        <v>117910.7174764488</v>
       </c>
       <c r="K6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="L6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="M6" t="n">
-        <v>67535.72703025951</v>
+        <v>72997.29940149683</v>
       </c>
       <c r="N6" t="n">
-        <v>175509.0877043178</v>
+        <v>180970.6600755551</v>
       </c>
       <c r="O6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.6600755551</v>
       </c>
       <c r="P6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
     </row>
   </sheetData>
@@ -26749,34 +26749,34 @@
         <v>377.7436642170869</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="H3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="I3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="J3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="K3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="L3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="H3" t="n">
+      <c r="M3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="I3" t="n">
+      <c r="N3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="J3" t="n">
+      <c r="O3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="K3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="L3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="M3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="N3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="O3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26798,7 +26798,7 @@
         <v>241.014288877659</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545557</v>
@@ -26807,31 +26807,31 @@
         <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="I4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="N4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="O4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="P4" t="n">
-        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768969</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776588</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768971</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768969</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>91.88325107529232</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923048</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32168,28 +32168,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32241,34 +32241,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M17" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P17" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I18" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N18" t="n">
-        <v>195.5988322391989</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479578</v>
@@ -32338,7 +32338,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
@@ -32347,7 +32347,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,25 +32408,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32478,34 +32478,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M20" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P20" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,40 +32542,40 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I21" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K21" t="n">
-        <v>87.78329382423973</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
@@ -32584,7 +32584,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,25 +32645,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32715,34 +32715,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M23" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P23" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,40 +32779,40 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I24" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L24" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N24" t="n">
-        <v>195.5988322391989</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
@@ -32821,7 +32821,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,25 +32882,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32952,34 +32952,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M26" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P26" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044129</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,40 +33016,40 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I27" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L27" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N27" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O27" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P27" t="n">
-        <v>111.734380307287</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
@@ -33058,7 +33058,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,25 +33119,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,43 +33180,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P29" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>61.04368814949357</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L30" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M30" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N30" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O30" t="n">
-        <v>177.5954266578339</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,25 +33356,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33511,28 +33511,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
-        <v>195.5988322391985</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392718</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33751,25 +33751,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
-        <v>177.5954266578339</v>
+        <v>73.87984549392718</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34219,7 +34219,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>190.1500580638415</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
         <v>211.31907117367</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34459,7 +34459,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>195.5988322391989</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
         <v>193.3156655923047</v>
@@ -34786,10 +34786,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35020,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35266,13 +35266,13 @@
         <v>241.014288877659</v>
       </c>
       <c r="O9" t="n">
-        <v>169.9067907798016</v>
+        <v>226.4350751681934</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535713</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245899</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
         <v>146.3614835535656</v>
@@ -35819,10 +35819,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35889,22 +35889,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M17" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N18" t="n">
-        <v>543.5994944994192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36056,10 +36056,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36126,22 +36126,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M20" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P20" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338903</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36293,10 +36293,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36363,22 +36363,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M23" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P23" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N24" t="n">
-        <v>543.5994944994192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36530,10 +36530,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O25" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36600,22 +36600,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M26" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P26" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898681</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338903</v>
@@ -36691,10 +36691,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>296.2227415328939</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36767,10 +36767,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O28" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P29" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>60.29709682323571</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
-        <v>428.8615014901189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37004,10 +37004,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O31" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>543.5994944994187</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>428.8615014901189</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37867,19 +37867,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>513.7210878918231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>543.5994944994192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
